--- a/sravnenie ud.xlsx
+++ b/sravnenie ud.xlsx
@@ -567,6 +567,11 @@
           <t>005</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12002500004000074</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -579,6 +584,11 @@
           <t>201</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12001500051001885</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -587,6 +597,11 @@
         </is>
       </c>
       <c r="B4" s="7" t="n"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12001500051000475</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -597,6 +612,11 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12001500051001916</t>
         </is>
       </c>
     </row>
@@ -607,6 +627,11 @@
           <t>004</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12108500004000003</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,6 +644,11 @@
           <t>010</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12001500051000781</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -631,6 +661,11 @@
           <t>109</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12001500051000945</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -639,6 +674,11 @@
         </is>
       </c>
       <c r="B9" s="7" t="n"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -651,6 +691,11 @@
           <t>008</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12101500051000026</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -663,6 +708,11 @@
           <t>303</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12101500051000050</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -675,6 +725,11 @@
           <t>607</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12001500051003364</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +742,11 @@
           <t>006</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12001500051000474</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -695,6 +755,11 @@
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12001500051000465</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -703,6 +768,11 @@
         </is>
       </c>
       <c r="B15" s="7" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12001500051003447</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -715,6 +785,11 @@
           <t>121</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12101500051000079</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -723,6 +798,11 @@
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12001500051000801</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -731,6 +811,11 @@
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12002500004000057</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -741,12 +826,22 @@
       <c r="B19" s="6" t="inlineStr">
         <is>
           <t>007   1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12001500051000710</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
       <c r="B20" s="7" t="n"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12001500051001346</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -755,10 +850,20 @@
         </is>
       </c>
       <c r="B21" s="7" t="n"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12001500051002421</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n"/>
       <c r="B22" s="7" t="n"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12001500051003027</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -767,6 +872,11 @@
         </is>
       </c>
       <c r="B23" s="7" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12001500051003415</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="30" customHeight="1" s="5">
       <c r="A24" t="inlineStr">
@@ -779,6 +889,11 @@
           <t>11901500051002868</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12001500051000378</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="30" customHeight="1" s="5">
       <c r="A25" t="inlineStr">
@@ -791,6 +906,11 @@
           <t>12001500051000262</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12001500051002586</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="30" customHeight="1" s="5">
       <c r="A26" t="inlineStr">
@@ -803,6 +923,11 @@
           <t>12001500051000455</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12001500051002103</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="30" customHeight="1" s="5">
       <c r="A27" t="inlineStr">
@@ -815,6 +940,11 @@
           <t>12001500051000465</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12001500051003080</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="30" customHeight="1" s="5">
       <c r="A28" t="inlineStr">
@@ -827,6 +957,11 @@
           <t>12001500051000485</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12101500051000093</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="30" customHeight="1" s="5">
       <c r="A29" t="inlineStr">
@@ -839,6 +974,11 @@
           <t>12001500051000576</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12001500051001341</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="30" customHeight="1" s="5">
       <c r="A30" t="inlineStr">
@@ -851,6 +991,11 @@
           <t>12001500051000625</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12002500004000157</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="30" customHeight="1" s="5">
       <c r="A31" t="inlineStr">
@@ -863,6 +1008,11 @@
           <t>12001500051000644</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12001500051000550</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="30" customHeight="1" s="5">
       <c r="A32" t="inlineStr">
@@ -875,6 +1025,11 @@
           <t>12001500051000646</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12001500051001906</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="30" customHeight="1" s="5">
       <c r="A33" t="inlineStr">
@@ -887,6 +1042,11 @@
           <t>12001500051000710</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>12001500051003044</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="30" customHeight="1" s="5">
       <c r="A34" t="inlineStr">
@@ -899,6 +1059,11 @@
           <t>12001500051000713</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>12001500051001153</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="30" customHeight="1" s="5">
       <c r="A35" t="inlineStr">
@@ -911,6 +1076,11 @@
           <t>12001500051000781</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>12002500004000122</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="30" customHeight="1" s="5">
       <c r="A36" t="inlineStr">
@@ -923,6 +1093,11 @@
           <t>12001500051000798</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12001500051003047</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="30" customHeight="1" s="5">
       <c r="A37" t="inlineStr">
@@ -935,6 +1110,11 @@
           <t>12001500051000809</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>12001500051001787</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="30" customHeight="1" s="5">
       <c r="A38" t="inlineStr">
@@ -947,6 +1127,11 @@
           <t>12001500051000880</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12001500051002872</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="30" customHeight="1" s="5">
       <c r="A39" t="inlineStr">
@@ -959,6 +1144,11 @@
           <t>12001500051000945</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12001500051003106</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="30" customHeight="1" s="5">
       <c r="A40" t="inlineStr">
@@ -971,6 +1161,11 @@
           <t>12001500051000954</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12001500051001066</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="30" customHeight="1" s="5">
       <c r="A41" t="inlineStr">
@@ -983,6 +1178,11 @@
           <t>12001500051001024</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>11901500051000159</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="30" customHeight="1" s="5">
       <c r="A42" t="inlineStr">
@@ -995,6 +1195,11 @@
           <t>12001500051001066</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12001500051000646</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="30" customHeight="1" s="5">
       <c r="A43" t="inlineStr">
@@ -1007,6 +1212,11 @@
           <t>12001500051001214</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12101500051000131</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="30" customHeight="1" s="5">
       <c r="A44" t="inlineStr">
@@ -1019,6 +1229,11 @@
           <t>12001500051001295</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12001500051001702</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="30" customHeight="1" s="5">
       <c r="A45" t="inlineStr">
@@ -1031,6 +1246,11 @@
           <t>12001500051001335</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="30" customHeight="1" s="5">
       <c r="A46" t="inlineStr">
@@ -1039,6 +1259,11 @@
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="30" customHeight="1" s="5">
       <c r="A47" t="inlineStr">
@@ -1051,6 +1276,11 @@
           <t>12001500051001338</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>12001500051002569</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="30" customHeight="1" s="5">
       <c r="A48" t="inlineStr">
@@ -1063,6 +1293,11 @@
           <t>12001500051001346</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>008</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="30" customHeight="1" s="5">
       <c r="A49" t="inlineStr">
@@ -1075,6 +1310,11 @@
           <t>12001500051001483</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>11901500051002868</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="30" customHeight="1" s="5">
       <c r="A50" t="inlineStr">
@@ -1087,6 +1327,11 @@
           <t>12001500051001492</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>11901500051003333</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="30" customHeight="1" s="5">
       <c r="A51" t="inlineStr">
@@ -1099,6 +1344,11 @@
           <t>12001500051001535</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12002500004000143</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="30" customHeight="1" s="5">
       <c r="A52" t="inlineStr">
@@ -1111,6 +1361,11 @@
           <t>12001500051001705</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>12001500051001515</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="30" customHeight="1" s="5">
       <c r="A53" t="inlineStr">
@@ -1123,6 +1378,11 @@
           <t>12001500051001716</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>12001500051003366</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="30" customHeight="1" s="5">
       <c r="A54" t="inlineStr">
@@ -1135,6 +1395,11 @@
           <t>12001500051001812</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12001500051002964</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="30" customHeight="1" s="5">
       <c r="A55" t="inlineStr">
@@ -1147,6 +1412,11 @@
           <t>12001500051001822</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>12001500051001214</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="30" customHeight="1" s="5">
       <c r="A56" t="inlineStr">
@@ -1159,6 +1429,11 @@
           <t>12001500051001838</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>12001500051002589</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="30" customHeight="1" s="5">
       <c r="A57" t="inlineStr">
@@ -1171,6 +1446,11 @@
           <t>12001500051001885</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12001500051002605</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="30" customHeight="1" s="5">
       <c r="A58" t="inlineStr">
@@ -1183,6 +1463,11 @@
           <t>12001500051001889</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>12001500051003212</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="30" customHeight="1" s="5">
       <c r="A59" t="inlineStr">
@@ -1195,6 +1480,11 @@
           <t>12001500051001906</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>12001500051001483</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="30" customHeight="1" s="5">
       <c r="A60" t="inlineStr">
@@ -1207,6 +1497,11 @@
           <t>12001500051001916</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>12001500051001360</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="30" customHeight="1" s="5">
       <c r="A61" t="inlineStr">
@@ -1219,6 +1514,11 @@
           <t>12001500051001985</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>12001500051001716</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="30" customHeight="1" s="5">
       <c r="A62" t="inlineStr">
@@ -1231,6 +1531,11 @@
           <t>12001500051002024</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>12001500051002620</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="30" customHeight="1" s="5">
       <c r="A63" t="inlineStr">
@@ -1243,6 +1548,11 @@
           <t>12001500051002029</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>12001500051001592</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="30" customHeight="1" s="5">
       <c r="A64" t="inlineStr">
@@ -1255,6 +1565,11 @@
           <t>12001500051002103</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="30" customHeight="1" s="5">
       <c r="A65" t="inlineStr">
@@ -1263,6 +1578,11 @@
         </is>
       </c>
       <c r="B65" s="7" t="n"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>12001500051001124</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="30" customHeight="1" s="5">
       <c r="A66" t="inlineStr">
@@ -1275,6 +1595,11 @@
           <t>12001500051002250</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>12001500051002913</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="30" customHeight="1" s="5">
       <c r="A67" t="inlineStr">
@@ -1287,6 +1612,11 @@
           <t>12001500051002250</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>12001500051000782</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="30" customHeight="1" s="5">
       <c r="A68" t="inlineStr">
@@ -1295,6 +1625,11 @@
         </is>
       </c>
       <c r="B68" s="7" t="n"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>12101500051001024</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="30" customHeight="1" s="5">
       <c r="A69" t="inlineStr">
@@ -1303,6 +1638,11 @@
         </is>
       </c>
       <c r="B69" s="7" t="n"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>12001500051001985</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="30" customHeight="1" s="5">
       <c r="A70" t="inlineStr">
@@ -1315,6 +1655,11 @@
           <t>12001500051002913</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>12001500051002411</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="30" customHeight="1" s="5">
       <c r="A71" t="inlineStr">
@@ -1327,6 +1672,11 @@
           <t>12001500051002339</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>12001500051001822</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="30" customHeight="1" s="5">
       <c r="A72" t="inlineStr">
@@ -1335,6 +1685,11 @@
         </is>
       </c>
       <c r="B72" s="7" t="n"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>12001500051002380</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="30" customHeight="1" s="5">
       <c r="A73" t="inlineStr">
@@ -1347,6 +1702,11 @@
           <t>12001500051002339</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="30" customHeight="1" s="5">
       <c r="A74" t="inlineStr">
@@ -1355,6 +1715,11 @@
         </is>
       </c>
       <c r="B74" s="7" t="n"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>12101500051000431</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="30" customHeight="1" s="5">
       <c r="A75" t="inlineStr">
@@ -1367,6 +1732,11 @@
           <t>12001500051002370</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>12001500051001163</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="30" customHeight="1" s="5">
       <c r="A76" t="inlineStr">
@@ -1379,6 +1749,11 @@
           <t>12001500051002441</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>12101500051000082</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="30" customHeight="1" s="5">
       <c r="A77" t="inlineStr">
@@ -1391,6 +1766,11 @@
           <t>12001500051002508</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>12001500051002582</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="30" customHeight="1" s="5">
       <c r="A78" t="inlineStr">
@@ -1403,6 +1783,11 @@
           <t>12001500051002523</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>12001500051002023</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="30" customHeight="1" s="5">
       <c r="A79" t="inlineStr">
@@ -1415,6 +1800,11 @@
           <t>12001500051002552</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>12002500004000141</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="30" customHeight="1" s="5">
       <c r="A80" t="inlineStr">
@@ -1427,6 +1817,11 @@
           <t>12001500051002569</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>12101500051000013</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="30" customHeight="1" s="5">
       <c r="A81" t="inlineStr">
@@ -1439,6 +1834,11 @@
           <t>12001500051002582</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>12001500051000625</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="30" customHeight="1" s="5">
       <c r="A82" t="inlineStr">
@@ -1451,6 +1851,11 @@
           <t>12001500051002590</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="30" customHeight="1" s="5">
       <c r="A83" t="inlineStr">
@@ -1463,6 +1868,11 @@
           <t>12001500051002605</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>12001500051001838</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="30" customHeight="1" s="5">
       <c r="A84" t="inlineStr">
@@ -1475,6 +1885,11 @@
           <t>12001500051002607</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>12001500051000262</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="30" customHeight="1" s="5">
       <c r="A85" t="inlineStr">
@@ -1487,6 +1902,11 @@
           <t>12001500051002620</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>12001500051001758</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="30" customHeight="1" s="5">
       <c r="A86" t="inlineStr">
@@ -1499,6 +1919,11 @@
           <t>12001500051002634</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>12001500051001338</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="30" customHeight="1" s="5">
       <c r="A87" t="inlineStr">
@@ -1511,6 +1936,11 @@
           <t>12001500051002691</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="30" customHeight="1" s="5">
       <c r="A88" t="inlineStr">
@@ -1523,6 +1953,11 @@
           <t>12001500051002757</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>12001500051003115</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="30" customHeight="1" s="5">
       <c r="A89" t="inlineStr">
@@ -1535,6 +1970,11 @@
           <t>12001500051002758</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>12001500051003335</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="30" customHeight="1" s="5">
       <c r="A90" t="inlineStr">
@@ -1547,6 +1987,11 @@
           <t>12001500051002832</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>12001500051001890</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="30" customHeight="1" s="5">
       <c r="A91" t="inlineStr">
@@ -1559,6 +2004,11 @@
           <t>12001500051002872</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12001500051002983</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="30" customHeight="1" s="5">
       <c r="A92" t="inlineStr">
@@ -1571,6 +2021,11 @@
           <t>12001500051002913</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>12001500051003289</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="30" customHeight="1" s="5">
       <c r="A93" t="inlineStr">
@@ -1579,6 +2034,11 @@
         </is>
       </c>
       <c r="B93" s="7" t="n"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>12001500051002590</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="30" customHeight="1" s="5">
       <c r="A94" t="inlineStr">
@@ -1591,6 +2051,11 @@
           <t>12001500051002917</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>12001500051002917</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="30" customHeight="1" s="5">
       <c r="A95" t="inlineStr">
@@ -1603,6 +2068,11 @@
           <t>12001500051002922</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>12001500051002024</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="30" customHeight="1" s="5">
       <c r="A96" t="inlineStr">
@@ -1611,6 +2081,11 @@
         </is>
       </c>
       <c r="B96" s="7" t="n"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>12001500051002937</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="30" customHeight="1" s="5">
       <c r="A97" t="inlineStr">
@@ -1623,6 +2098,11 @@
           <t>12001500051003027</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>12001500051002508</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="30" customHeight="1" s="5">
       <c r="A98" t="inlineStr">
@@ -1635,6 +2115,11 @@
           <t>12001500051003047</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12102500004000009</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="30" customHeight="1" s="5">
       <c r="A99" t="inlineStr">
@@ -1647,6 +2132,11 @@
           <t>12001500051003106</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>12101500001000004</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="30" customHeight="1" s="5">
       <c r="A100" t="inlineStr">
@@ -1659,6 +2149,11 @@
           <t>1200150051003115</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>12001500051002552</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="30" customHeight="1" s="5">
       <c r="A101" t="inlineStr">
@@ -1671,6 +2166,11 @@
           <t>12001500051003132</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>12001500051001333</t>
+        </is>
+      </c>
     </row>
     <row r="102" ht="30" customHeight="1" s="5">
       <c r="A102" t="inlineStr">
@@ -1679,6 +2179,11 @@
         </is>
       </c>
       <c r="B102" s="7" t="n"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>12001500051000576</t>
+        </is>
+      </c>
     </row>
     <row r="103" ht="30" customHeight="1" s="5">
       <c r="A103" t="inlineStr">
@@ -1691,6 +2196,11 @@
           <t>12101500051003150</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>12001500051002607</t>
+        </is>
+      </c>
     </row>
     <row r="104" ht="30" customHeight="1" s="5">
       <c r="A104" t="inlineStr">
@@ -1703,6 +2213,11 @@
           <t>12001500051003287</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>12001500051002634</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="30" customHeight="1" s="5">
       <c r="A105" t="inlineStr">
@@ -1715,6 +2230,11 @@
           <t>12001500051003289</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>12001500051000809</t>
+        </is>
+      </c>
     </row>
     <row r="106" ht="30" customHeight="1" s="5">
       <c r="A106" t="inlineStr">
@@ -1727,6 +2247,11 @@
           <t>12001500051003330</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>12001500051002801</t>
+        </is>
+      </c>
     </row>
     <row r="107" ht="30" customHeight="1" s="5">
       <c r="A107" t="inlineStr">
@@ -1739,6 +2264,11 @@
           <t>12001500051003364</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>12001500051001259</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="30" customHeight="1" s="5">
       <c r="A108" t="inlineStr">
@@ -1751,6 +2281,11 @@
           <t>12001500051003415</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>12001500051003438</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="30" customHeight="1" s="5">
       <c r="A109" t="inlineStr">
@@ -1763,6 +2298,11 @@
           <t>12002500004000111</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
     </row>
     <row r="110" ht="30" customHeight="1" s="5">
       <c r="A110" t="inlineStr">
@@ -1775,6 +2315,11 @@
           <t>12101500051000019</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>12001500051000644</t>
+        </is>
+      </c>
     </row>
     <row r="111" ht="30" customHeight="1" s="5">
       <c r="A111" t="inlineStr">
@@ -1787,6 +2332,11 @@
           <t>12101500051000079</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>12001500051001492</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="30" customHeight="1" s="5">
       <c r="A112" t="inlineStr">
@@ -1799,6 +2349,11 @@
           <t>12101500051000082</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>12001500051003199</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="30" customHeight="1" s="5">
       <c r="A113" t="inlineStr">
@@ -1811,6 +2366,11 @@
           <t>12101500051000084</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>12001500051002884</t>
+        </is>
+      </c>
     </row>
     <row r="114" ht="30" customHeight="1" s="5">
       <c r="A114" t="inlineStr">
@@ -1823,6 +2383,11 @@
           <t>12001500051000093</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>12001500051001164</t>
+        </is>
+      </c>
     </row>
     <row r="115" ht="30" customHeight="1" s="5">
       <c r="A115" t="inlineStr">
@@ -1831,6 +2396,11 @@
         </is>
       </c>
       <c r="B115" s="7" t="n"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>12001500051003150</t>
+        </is>
+      </c>
     </row>
     <row r="116" ht="30" customHeight="1" s="5">
       <c r="A116" t="inlineStr">
@@ -1843,6 +2413,11 @@
           <t>12101500051000106</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>12001500051003020</t>
+        </is>
+      </c>
     </row>
     <row r="117" ht="30" customHeight="1" s="5">
       <c r="A117" t="inlineStr">
@@ -1855,6 +2430,11 @@
           <t>12101500051000131</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>12001500051002745</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="30" customHeight="1" s="5">
       <c r="A118" t="inlineStr">
@@ -1867,6 +2447,11 @@
           <t>12101500051000209</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
     </row>
     <row r="119" ht="30" customHeight="1" s="5">
       <c r="A119" t="inlineStr">
@@ -1879,6 +2464,11 @@
           <t>12101500051000372</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>12002500004000061</t>
+        </is>
+      </c>
     </row>
     <row r="120" ht="30" customHeight="1" s="5">
       <c r="A120" t="inlineStr">
@@ -1891,6 +2481,11 @@
           <t>12001500051002964</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>12001500051003242</t>
+        </is>
+      </c>
     </row>
     <row r="121" ht="30" customHeight="1" s="5">
       <c r="A121" t="inlineStr">
@@ -1899,6 +2494,11 @@
         </is>
       </c>
       <c r="B121" s="7" t="n"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>12001500051003481</t>
+        </is>
+      </c>
     </row>
     <row r="122" ht="30" customHeight="1" s="5">
       <c r="A122" t="inlineStr">
@@ -1907,6 +2507,11 @@
         </is>
       </c>
       <c r="B122" s="7" t="n"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="30" customHeight="1" s="5">
       <c r="A123" t="inlineStr">
@@ -1919,6 +2524,11 @@
           <t>12001500051003132</t>
         </is>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>12001500051001706</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="30" customHeight="1" s="5">
       <c r="A124" t="inlineStr">
@@ -1931,6 +2541,11 @@
           <t>12001500051003447</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>12001500051001812</t>
+        </is>
+      </c>
     </row>
     <row r="125" ht="30" customHeight="1" s="5">
       <c r="A125" t="inlineStr">
@@ -1943,6 +2558,11 @@
           <t>12108500004000003</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>12001500051002523</t>
+        </is>
+      </c>
     </row>
     <row r="126" ht="30" customHeight="1" s="5">
       <c r="A126" t="inlineStr">
@@ -1955,6 +2575,11 @@
           <t>12108500004000004</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>12101500051000372</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="30" customHeight="1" s="5">
       <c r="A127" t="inlineStr">
@@ -1967,6 +2592,11 @@
           <t>12108500004000005</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>12001500051002580</t>
+        </is>
+      </c>
     </row>
     <row r="128" ht="30" customHeight="1" s="5">
       <c r="A128" t="inlineStr">
@@ -1979,6 +2609,11 @@
           <t>12108500004000001</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
     </row>
     <row r="129" ht="30" customHeight="1" s="5">
       <c r="A129" t="inlineStr">
@@ -1991,6 +2626,11 @@
           <t>12108500004000002</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>12001500051000455</t>
+        </is>
+      </c>
     </row>
     <row r="130" ht="30" customHeight="1" s="5">
       <c r="A130" t="inlineStr">
@@ -2003,6 +2643,11 @@
           <t>41901500051002191</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>22101500001000020</t>
+        </is>
+      </c>
     </row>
     <row r="131" ht="30" customHeight="1" s="5">
       <c r="A131" t="inlineStr">
@@ -2015,6 +2660,11 @@
           <t>12001500051003447</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>12001500051001166</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="30" customHeight="1" s="5">
       <c r="A132" t="inlineStr">
@@ -2023,6 +2673,11 @@
         </is>
       </c>
       <c r="B132" s="7" t="n"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>12101500051000330</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="30" customHeight="1" s="5">
       <c r="A133" t="inlineStr">
@@ -2031,6 +2686,11 @@
         </is>
       </c>
       <c r="B133" s="7" t="n"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>12001500051000486</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="30" customHeight="1" s="5">
       <c r="A134" t="inlineStr">
@@ -2039,6 +2699,11 @@
         </is>
       </c>
       <c r="B134" s="7" t="n"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>12001500051003186</t>
+        </is>
+      </c>
     </row>
     <row r="135" ht="30" customHeight="1" s="5">
       <c r="A135" t="inlineStr">
@@ -2047,6 +2712,11 @@
         </is>
       </c>
       <c r="B135" s="7" t="n"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>12108500004000005</t>
+        </is>
+      </c>
     </row>
     <row r="136" ht="30" customHeight="1" s="5">
       <c r="A136" t="inlineStr">
@@ -2055,6 +2725,11 @@
         </is>
       </c>
       <c r="B136" s="7" t="n"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>12001500051000485</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="30" customHeight="1" s="5">
       <c r="A137" t="inlineStr">
@@ -2063,6 +2738,11 @@
         </is>
       </c>
       <c r="B137" s="7" t="n"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>12002500004000104</t>
+        </is>
+      </c>
     </row>
     <row r="138" ht="30" customHeight="1" s="5">
       <c r="A138" t="inlineStr">
@@ -2071,6 +2751,11 @@
         </is>
       </c>
       <c r="B138" s="7" t="n"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
     </row>
     <row r="139" ht="30" customHeight="1" s="5">
       <c r="A139" t="inlineStr">
@@ -2079,6 +2764,11 @@
         </is>
       </c>
       <c r="B139" s="7" t="n"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>12001500051001140</t>
+        </is>
+      </c>
     </row>
     <row r="140" ht="30" customHeight="1" s="5">
       <c r="A140" t="inlineStr">
@@ -2087,6 +2777,11 @@
         </is>
       </c>
       <c r="B140" s="7" t="n"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>12001500051001889</t>
+        </is>
+      </c>
     </row>
     <row r="141" ht="30" customHeight="1" s="5">
       <c r="A141" t="inlineStr">
@@ -2095,6 +2790,11 @@
         </is>
       </c>
       <c r="B141" s="7" t="n"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>12101500051002441</t>
+        </is>
+      </c>
     </row>
     <row r="142" ht="30" customHeight="1" s="5">
       <c r="A142" t="inlineStr">
@@ -2103,6 +2803,11 @@
         </is>
       </c>
       <c r="B142" s="7" t="n"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>12101500051000106</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="30" customHeight="1" s="5">
       <c r="A143" t="inlineStr">
@@ -2111,6 +2816,11 @@
         </is>
       </c>
       <c r="B143" s="7" t="n"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>12001500051003287</t>
+        </is>
+      </c>
     </row>
     <row r="144" ht="30" customHeight="1" s="5">
       <c r="A144" t="inlineStr">
@@ -2119,6 +2829,11 @@
         </is>
       </c>
       <c r="B144" s="7" t="n"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>12001500051001535</t>
+        </is>
+      </c>
     </row>
     <row r="145" ht="30" customHeight="1" s="5">
       <c r="A145" t="inlineStr">
@@ -2127,6 +2842,11 @@
         </is>
       </c>
       <c r="B145" s="7" t="n"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>12002500004000149</t>
+        </is>
+      </c>
     </row>
     <row r="146" ht="30" customHeight="1" s="5">
       <c r="A146" t="inlineStr">
@@ -2135,6 +2855,11 @@
         </is>
       </c>
       <c r="B146" s="7" t="n"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>12001500051001085</t>
+        </is>
+      </c>
     </row>
     <row r="147" ht="30" customHeight="1" s="5">
       <c r="A147" t="inlineStr">
@@ -2143,6 +2868,11 @@
         </is>
       </c>
       <c r="B147" s="7" t="n"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>12001500051001970</t>
+        </is>
+      </c>
     </row>
     <row r="148" ht="30" customHeight="1" s="5">
       <c r="A148" t="inlineStr">
@@ -2151,6 +2881,11 @@
         </is>
       </c>
       <c r="B148" s="7" t="n"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>12001500051000798</t>
+        </is>
+      </c>
     </row>
     <row r="149" ht="30" customHeight="1" s="5">
       <c r="A149" t="inlineStr">
@@ -2159,6 +2894,11 @@
         </is>
       </c>
       <c r="B149" s="7" t="n"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>12101500051000404</t>
+        </is>
+      </c>
     </row>
     <row r="150" ht="30" customHeight="1" s="5">
       <c r="A150" t="inlineStr">
@@ -2167,6 +2907,11 @@
         </is>
       </c>
       <c r="B150" s="7" t="n"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>12001500051001947</t>
+        </is>
+      </c>
     </row>
     <row r="151" ht="30" customHeight="1" s="5">
       <c r="A151" t="inlineStr">
@@ -2175,6 +2920,11 @@
         </is>
       </c>
       <c r="B151" s="7" t="n"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>12002500004000073</t>
+        </is>
+      </c>
     </row>
     <row r="152" ht="30" customHeight="1" s="5">
       <c r="A152" t="inlineStr">
@@ -2183,6 +2933,11 @@
         </is>
       </c>
       <c r="B152" s="7" t="n"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>12001500051001406</t>
+        </is>
+      </c>
     </row>
     <row r="153" ht="30" customHeight="1" s="5">
       <c r="A153" t="inlineStr">
@@ -2191,6 +2946,11 @@
         </is>
       </c>
       <c r="B153" s="7" t="n"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>12001500051003352</t>
+        </is>
+      </c>
     </row>
     <row r="154" ht="30" customHeight="1" s="5">
       <c r="A154" t="inlineStr">
@@ -2199,6 +2959,11 @@
         </is>
       </c>
       <c r="B154" s="7" t="n"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
     </row>
     <row r="155" ht="30" customHeight="1" s="5">
       <c r="A155" t="inlineStr">
@@ -2207,6 +2972,11 @@
         </is>
       </c>
       <c r="B155" s="7" t="n"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>12001500051003391</t>
+        </is>
+      </c>
     </row>
     <row r="156" ht="30" customHeight="1" s="5">
       <c r="A156" t="inlineStr">
@@ -2215,6 +2985,11 @@
         </is>
       </c>
       <c r="B156" s="7" t="n"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>12001500051000421</t>
+        </is>
+      </c>
     </row>
     <row r="157" ht="30" customHeight="1" s="5">
       <c r="A157" t="inlineStr">
@@ -2223,6 +2998,11 @@
         </is>
       </c>
       <c r="B157" s="7" t="n"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>12001500051003269</t>
+        </is>
+      </c>
     </row>
     <row r="158" ht="30" customHeight="1" s="5">
       <c r="A158" t="inlineStr">
@@ -2231,6 +3011,11 @@
         </is>
       </c>
       <c r="B158" s="7" t="n"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>12101500051000019</t>
+        </is>
+      </c>
     </row>
     <row r="159" ht="30" customHeight="1" s="5">
       <c r="A159" t="inlineStr">
@@ -2239,6 +3024,11 @@
         </is>
       </c>
       <c r="B159" s="7" t="n"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>12001500051003280</t>
+        </is>
+      </c>
     </row>
     <row r="160" ht="30" customHeight="1" s="5">
       <c r="A160" t="inlineStr">
@@ -2247,6 +3037,11 @@
         </is>
       </c>
       <c r="B160" s="7" t="n"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>12001500051001461</t>
+        </is>
+      </c>
     </row>
     <row r="161" ht="30" customHeight="1" s="5">
       <c r="A161" t="inlineStr">
@@ -2255,6 +3050,11 @@
         </is>
       </c>
       <c r="B161" s="7" t="n"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>12002500004000050</t>
+        </is>
+      </c>
     </row>
     <row r="162" ht="30" customHeight="1" s="5">
       <c r="A162" t="inlineStr">
@@ -2263,6 +3063,11 @@
         </is>
       </c>
       <c r="B162" s="7" t="n"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>12001500051002098</t>
+        </is>
+      </c>
     </row>
     <row r="163" ht="30" customHeight="1" s="5">
       <c r="A163" t="inlineStr">
@@ -2271,6 +3076,11 @@
         </is>
       </c>
       <c r="B163" s="7" t="n"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>12001500051003130</t>
+        </is>
+      </c>
     </row>
     <row r="164" ht="30" customHeight="1" s="5">
       <c r="A164" t="inlineStr">
@@ -2279,6 +3089,11 @@
         </is>
       </c>
       <c r="B164" s="7" t="n"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>12001500051000743</t>
+        </is>
+      </c>
     </row>
     <row r="165" ht="30" customHeight="1" s="5">
       <c r="A165" t="inlineStr">
@@ -2287,6 +3102,11 @@
         </is>
       </c>
       <c r="B165" s="7" t="n"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>12101500051000360</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="30" customHeight="1" s="5">
       <c r="A166" t="inlineStr">
@@ -2295,6 +3115,11 @@
         </is>
       </c>
       <c r="B166" s="7" t="n"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>12001500051000880</t>
+        </is>
+      </c>
     </row>
     <row r="167" ht="30" customHeight="1" s="5">
       <c r="A167" t="inlineStr">
@@ -2303,6 +3128,11 @@
         </is>
       </c>
       <c r="B167" s="7" t="n"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>12001500051002476</t>
+        </is>
+      </c>
     </row>
     <row r="168" ht="30" customHeight="1" s="5">
       <c r="A168" t="inlineStr">
@@ -2311,6 +3141,11 @@
         </is>
       </c>
       <c r="B168" s="7" t="n"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>12001500051002832</t>
+        </is>
+      </c>
     </row>
     <row r="169" ht="30" customHeight="1" s="5">
       <c r="A169" t="inlineStr">
@@ -2319,6 +3154,11 @@
         </is>
       </c>
       <c r="B169" s="7" t="n"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>12108500004000001</t>
+        </is>
+      </c>
     </row>
     <row r="170" ht="30" customHeight="1" s="5">
       <c r="A170" t="inlineStr">
@@ -2327,6 +3167,11 @@
         </is>
       </c>
       <c r="B170" s="7" t="n"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>12001500051003001</t>
+        </is>
+      </c>
     </row>
     <row r="171" ht="30" customHeight="1" s="5">
       <c r="A171" t="inlineStr">
@@ -2335,6 +3180,11 @@
         </is>
       </c>
       <c r="B171" s="7" t="n"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>12001500051002029</t>
+        </is>
+      </c>
     </row>
     <row r="172" ht="30" customHeight="1" s="5">
       <c r="A172" t="inlineStr">
@@ -2343,6 +3193,11 @@
         </is>
       </c>
       <c r="B172" s="7" t="n"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
     </row>
     <row r="173" ht="30" customHeight="1" s="5">
       <c r="A173" t="inlineStr">
@@ -2351,6 +3206,11 @@
         </is>
       </c>
       <c r="B173" s="7" t="n"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>12001500051000263</t>
+        </is>
+      </c>
     </row>
     <row r="174" ht="30" customHeight="1" s="5">
       <c r="A174" t="inlineStr">
@@ -2359,6 +3219,11 @@
         </is>
       </c>
       <c r="B174" s="7" t="n"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>12001500051000713</t>
+        </is>
+      </c>
     </row>
     <row r="175" ht="30" customHeight="1" s="5">
       <c r="A175" t="inlineStr">
@@ -2367,6 +3232,11 @@
         </is>
       </c>
       <c r="B175" s="7" t="n"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>11901500051002336</t>
+        </is>
+      </c>
     </row>
     <row r="176" ht="30" customHeight="1" s="5">
       <c r="A176" t="inlineStr">
@@ -2375,6 +3245,11 @@
         </is>
       </c>
       <c r="B176" s="7" t="n"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>12001500051003368</t>
+        </is>
+      </c>
     </row>
     <row r="177" ht="30" customHeight="1" s="5">
       <c r="A177" t="inlineStr">
@@ -2383,6 +3258,11 @@
         </is>
       </c>
       <c r="B177" s="7" t="n"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>12001500051000419</t>
+        </is>
+      </c>
     </row>
     <row r="178" ht="30" customHeight="1" s="5">
       <c r="A178" t="inlineStr">
@@ -2391,6 +3271,11 @@
         </is>
       </c>
       <c r="B178" s="7" t="n"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>12001500051001651</t>
+        </is>
+      </c>
     </row>
     <row r="179" ht="30" customHeight="1" s="5">
       <c r="A179" t="inlineStr">
@@ -2399,6 +3284,11 @@
         </is>
       </c>
       <c r="B179" s="7" t="n"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>12001500051003330</t>
+        </is>
+      </c>
     </row>
     <row r="180" ht="30" customHeight="1" s="5">
       <c r="A180" t="inlineStr">
@@ -2407,6 +3297,11 @@
         </is>
       </c>
       <c r="B180" s="7" t="n"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>12001500051001295</t>
+        </is>
+      </c>
     </row>
     <row r="181" ht="30" customHeight="1" s="5">
       <c r="A181" t="inlineStr">
@@ -2415,6 +3310,11 @@
         </is>
       </c>
       <c r="B181" s="7" t="n"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>12108500004000004</t>
+        </is>
+      </c>
     </row>
     <row r="182" ht="30" customHeight="1" s="5">
       <c r="A182" t="inlineStr">
@@ -2423,6 +3323,11 @@
         </is>
       </c>
       <c r="B182" s="7" t="n"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>12001500051000196</t>
+        </is>
+      </c>
     </row>
     <row r="183" ht="30" customHeight="1" s="5">
       <c r="A183" t="inlineStr">
@@ -2431,6 +3336,11 @@
         </is>
       </c>
       <c r="B183" s="7" t="n"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>12001500051001335</t>
+        </is>
+      </c>
     </row>
     <row r="184" ht="30" customHeight="1" s="5">
       <c r="A184" t="inlineStr">
@@ -2439,6 +3349,11 @@
         </is>
       </c>
       <c r="B184" s="7" t="n"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>12001500051000397</t>
+        </is>
+      </c>
     </row>
     <row r="185" ht="30" customHeight="1" s="5">
       <c r="A185" t="inlineStr">
@@ -2447,6 +3362,11 @@
         </is>
       </c>
       <c r="B185" s="7" t="n"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>12001500051003132</t>
+        </is>
+      </c>
     </row>
     <row r="186" ht="30" customHeight="1" s="5">
       <c r="A186" t="inlineStr">
@@ -2455,6 +3375,11 @@
         </is>
       </c>
       <c r="B186" s="7" t="n"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>12001500051002691</t>
+        </is>
+      </c>
     </row>
     <row r="187" ht="30" customHeight="1" s="5">
       <c r="A187" t="inlineStr">
